--- a/Laskut yhteenveto/LaskutYhteenveto-2025.04.14.xlsx
+++ b/Laskut yhteenveto/LaskutYhteenveto-2025.04.14.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://konecranes1-my.sharepoint.com/personal/samu_yrttiaho_konecranes_com/Documents/Documents/UiPath/New folder (3)/Laskut yhteenveto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allu\Documents\UiPath\DigiLii_harjoitustyö\Laskut yhteenveto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{F22CA982-2553-40C3-9007-1D8072144DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93C474DF-CD76-4AD6-B4C8-660FFCE3EC47}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0E2CB2-2F18-4653-8A5A-4D7EEB23F86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="900" windowWidth="14400" windowHeight="8260" firstSheet="1" activeTab="3" xr2:uid="{5003D57F-DD68-4416-83D2-454FC823256E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{C64D9CAC-093E-460D-919E-798A34132786}"/>
   </bookViews>
   <sheets>
     <sheet name="Maksetut laskut" sheetId="1" r:id="rId1"/>
@@ -89,24 +89,66 @@
     <t xml:space="preserve">LAPTUOTE-SÄÄTIÖ (R)     </t>
   </si>
   <si>
+    <t>2889642-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYÖKALU JA VARAOSA OY LAPPEEN-  </t>
+  </si>
+  <si>
+    <t>2246772-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VELIMARK OY     </t>
+  </si>
+  <si>
+    <t>0141217-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÄÄNIN KULJETUS OY    </t>
+  </si>
+  <si>
+    <t>0242800-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANKAVA OY     </t>
+  </si>
+  <si>
+    <t>0245954-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAANMITTAUSLAITOS      </t>
+  </si>
+  <si>
+    <t>2977551-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEAB INDUSTRI OY    </t>
+  </si>
+  <si>
+    <t>1103873-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-MUSIIKKI OY     </t>
+  </si>
+  <si>
+    <t>0583925-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WULFF SOLUTIONS OY    </t>
+  </si>
+  <si>
+    <t>0215703-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAPPEENRANNAN TOIMITILAT OY    </t>
+  </si>
+  <si>
     <t>1796558-9</t>
   </si>
   <si>
     <t xml:space="preserve">LPR ENERGIA OY    </t>
   </si>
   <si>
-    <t>2889642-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYÖKALU JA VARAOSA OY LAPPEEN-  </t>
-  </si>
-  <si>
-    <t>2246772-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VELIMARK OY     </t>
-  </si>
-  <si>
     <t>2554501-5</t>
   </si>
   <si>
@@ -119,52 +161,10 @@
     <t xml:space="preserve">VISMA FINANCIAL/SUOMEN ATK-MAA    </t>
   </si>
   <si>
-    <t>0141217-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LÄÄNIN KULJETUS OY    </t>
-  </si>
-  <si>
-    <t>0242800-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANKAVA OY     </t>
-  </si>
-  <si>
-    <t>0245954-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAANMITTAUSLAITOS      </t>
-  </si>
-  <si>
     <t>2047308-3</t>
   </si>
   <si>
     <t xml:space="preserve">INSPECTA TARKASTUS OY    </t>
-  </si>
-  <si>
-    <t>2977551-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEAB INDUSTRI OY    </t>
-  </si>
-  <si>
-    <t>1103873-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-MUSIIKKI OY     </t>
-  </si>
-  <si>
-    <t>0583925-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WULFF SOLUTIONS OY    </t>
-  </si>
-  <si>
-    <t>0215703-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAPPEENRANNAN TOIMITILAT OY    </t>
   </si>
   <si>
     <t>3128135-1</t>
@@ -209,8 +209,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,14 +545,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD5E4D4-7760-47F7-937B-BEC467A99636}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687BDCCD-6D25-460D-BDEA-6A2DAAF4FDAC}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -562,7 +563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -573,7 +574,7 @@
         <v>481.35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -584,7 +585,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -595,7 +596,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -606,7 +607,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -617,7 +618,7 @@
         <v>222.12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -628,7 +629,7 @@
         <v>206.88</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -636,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>2018.73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -647,10 +648,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>12.08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>223.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -658,10 +659,10 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <v>223.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -669,10 +670,10 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>1126.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -680,10 +681,10 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -691,10 +692,10 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>716.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -702,10 +703,10 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -713,50 +714,6 @@
         <v>31</v>
       </c>
       <c r="C15">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16">
-        <v>920.71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17">
-        <v>716.73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19">
         <v>733.87</v>
       </c>
     </row>
@@ -766,14 +723,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC87D26-D7FB-4235-949A-1206FD90E952}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87B4786-C092-4574-8A4F-6D63588BED53}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -784,25 +741,69 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>113916.71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>2018.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>1126.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>920.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C3">
+      <c r="C7">
         <v>3999.96</v>
       </c>
     </row>
@@ -812,16 +813,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93EC256-84CA-4E8D-BC17-23662BA5B68C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F60AC76-E4C8-44ED-A15B-226E9CC8A282}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>8.2060185185185187E-3</v>
       </c>
     </row>
   </sheetData>
@@ -830,14 +836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A495622D-27B4-4D7E-BE81-D9EF1F26323D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB3D111-1FCB-4632-9CF9-6F08869AE713}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
